--- a/NEW HR/JAYSON, EUGENIA.xlsx
+++ b/NEW HR/JAYSON, EUGENIA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>2/16-28/2023</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>12/13,14,15,18,19,22,26,27,28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -679,17 +685,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -703,20 +703,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,7 +1413,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1456,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1520,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1580,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1646,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1709,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1807,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1866,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1931,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1968,7 +1974,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2049,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2235,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2301,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2359,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2425,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2475,7 +2481,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2556,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2599,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2659,7 +2665,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2721,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2819,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2882,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,12 +3356,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:M134"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A82"/>
+      <selection activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,66 +3379,66 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3440,7 +3446,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3453,24 +3459,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3514,7 +3520,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3524,12 +3530,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="44">
+        <f>SUM(E9,I9)</f>
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3551,7 +3561,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3571,7 +3581,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3591,7 +3601,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3611,7 +3621,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3631,7 +3641,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3651,7 +3661,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -4879,7 +4889,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4898,15 +4908,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44985</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4914,15 +4928,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4930,15 +4948,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4946,15 +4968,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4962,15 +4988,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4978,15 +5008,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4994,15 +5028,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5010,15 +5048,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5026,15 +5068,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5042,15 +5088,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5058,7 +5108,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5074,7 +5126,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5090,7 +5144,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5106,7 +5162,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5122,7 +5180,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5138,7 +5198,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5154,7 +5216,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5170,7 +5234,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5186,7 +5252,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5202,7 +5270,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5218,7 +5288,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5234,7 +5306,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45626</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5250,7 +5324,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45657</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5266,7 +5342,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45688</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5282,7 +5360,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45716</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5298,7 +5378,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45747</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5314,7 +5396,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45777</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5330,7 +5414,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45808</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5346,7 +5432,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45838</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5362,7 +5450,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45869</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5378,7 +5468,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45900</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5394,7 +5486,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45930</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5410,7 +5504,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45961</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5426,7 +5522,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45991</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5442,7 +5540,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>46022</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5458,7 +5558,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>46053</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5474,7 +5576,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>46081</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5490,7 +5594,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>46112</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5506,7 +5612,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>46142</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5522,7 +5630,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>46173</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5538,7 +5648,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>46203</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5554,7 +5666,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>46234</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5570,7 +5684,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>46265</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5586,7 +5702,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46295</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5602,7 +5720,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46326</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5827,17 +5947,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5872,10 +5992,10 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A17" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A23" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,71 +6017,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>JAYSON, EUGENIA</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="str">
+      <c r="B4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5987,18 +6107,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6045,7 +6165,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>17.822999999999993</v>
+        <v>5.8229999999999933</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6465,7 +6585,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="63">
+      <c r="A28" s="23">
         <v>44927</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -6535,10 +6655,16 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="40">
+        <v>45259</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="D31" s="39">
+        <v>12</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
@@ -6548,7 +6674,9 @@
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="51" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
@@ -8230,17 +8358,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -8319,12 +8447,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
